--- a/webscrapping final/Bases finales/base_2024.xlsx
+++ b/webscrapping final/Bases finales/base_2024.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianarodriguez/Documents/SED-git/webscrapping final/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F988A39-77D4-D248-B33A-AC0D8913657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF8739-BFC2-214C-99F0-32359E846E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{A533ED86-E27D-2442-9916-1CE3342CA60F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{A533ED86-E27D-2442-9916-1CE3342CA60F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$14</definedName>
-    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$12</definedName>
+    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -216,15 +215,6 @@
     <t>NO ESPECÍFICA</t>
   </si>
   <si>
-    <t>El paro se inició en rechazo a la designación de José Ismael Peña como rector y se buscaban garantías académicas y de bienestar para la comunidad universitaria.</t>
-  </si>
-  <si>
-    <t>La Universidad Nacional levantó un paro de tres meses tras llegar a un acuerdo con la comunidad universitaria, permitiendo el reinicio de clases el 22 de julio.</t>
-  </si>
-  <si>
-    <t>https://www.eltiempo.com/vida/educacion/universidad-nacional-anuncia-que-llego-a-un-acuerdo-con-la-comunidad-y-se-levanto-el-paro-despues-de-3-meses-cuando-se-reinician-las-clases-3359298</t>
-  </si>
-  <si>
     <t>El paro camionero afecta el transporte y la logística del Programa de Alimentación Escolar (PAE), lo que ha llevado a la suspensión de clases.; El paro camionero ha afectado la movilidad en Bogotá, lo que llevó a las universidades a cancelar clases presenciales y optar por la virtualidad.; La suspensión de clases se debió a la situación de movilidad en la ciudad.; Los transportadores exigen medidas del Gobierno para reducir el precio del combustible, que ha aumentado significativamente.; No se especifican las razones en el comunicado.; Suspensión de clases programadas para el núcleo común y media.</t>
   </si>
   <si>
@@ -258,18 +248,6 @@
     <t>Si a la democracia no al golpe, si a la ley pensional</t>
   </si>
   <si>
-    <t>paro estudiantil</t>
-  </si>
-  <si>
-    <t>Los estudiantes exigen reformas en el estatuto general, políticas de género, apoyo alimentario y mejoras en la movilidad.</t>
-  </si>
-  <si>
-    <t>La Universidad Distrital de Bogotá suspendió su calendario académico hasta el 14 de noviembre de 2024 debido a un paro estudiantil que comenzó el 8 de octubre, afectando a más de 1.000 docentes.</t>
-  </si>
-  <si>
-    <t>https://www.infobae.com/colombia/2024/11/08/paro-estudiantil-en-la-universidad-distrital-habria-derivado-en-la-suspension-de-contratos-mas-de-1000-docentes/&amp;ved=2ahUKEwjq_9_E39uQAxVks1YBHZMnEQsQxfQBegQIAhAC&amp;usg=AOvVaw2yvzXVjTncbVbUmWerOv0C</t>
-  </si>
-  <si>
     <t>No al golpe de Estado – Contra el Sabotaje a la Implementación del Nuevo Modelo de Salud</t>
   </si>
   <si>
@@ -349,6 +327,66 @@
   </si>
   <si>
     <t>https://www.facebook.com/share/p/1Bo8rVTV11/</t>
+  </si>
+  <si>
+    <t>FECODE</t>
+  </si>
+  <si>
+    <t>Mitin</t>
+  </si>
+  <si>
+    <t>Exigencia de estabilidad en el modelo de salud del Magisterio y rechazo a los sabotajes en su implementación</t>
+  </si>
+  <si>
+    <t>El magisterio de Bogotá realizó un mitin ante la Fiduprevisora como parte de una exigencia nacional para garantizar la estabilización del sistema de salud docente.</t>
+  </si>
+  <si>
+    <t>Publicación oficial de FECODE (Facebook)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/17PwcHDXeC/</t>
+  </si>
+  <si>
+    <t>FECODE, ADE</t>
+  </si>
+  <si>
+    <t>Mitin Distrital</t>
+  </si>
+  <si>
+    <t>Defensa del derecho a la salud y respaldo al nuevo modelo de atención del magisterio</t>
+  </si>
+  <si>
+    <t>Gran mitin distrital por la vida y la salud convocado por la ADE con participación de FECODE, en respaldo al modelo del cambio y exigencia de su implementación sin dilación.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1SV6CjnBEX/</t>
+  </si>
+  <si>
+    <t>ADE, FECODE</t>
+  </si>
+  <si>
+    <t>Exigencia de pago de retroactivos salariales al magisterio distrital</t>
+  </si>
+  <si>
+    <t>Mitin pacífico frente a la Secretaría de Educación de Bogotá para exigir el pago puntual de retroactivos salariales y rechazar la respuesta represiva de la administración distrital.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/17b2bowbAH/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1DRj4FkgXN/</t>
+  </si>
+  <si>
+    <t>Mitin de Solidaridad</t>
+  </si>
+  <si>
+    <t>Solidaridad con el paro nacional en Argentina y defensa de los derechos laborales en América Latina</t>
+  </si>
+  <si>
+    <t>Mitin frente a la embajada de Argentina en Bogotá convocado por FECODE en respaldo al paro nacional argentino contra las reformas del presidente Milei.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/19zcomwgnt/</t>
   </si>
 </sst>
 </file>
@@ -769,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -890,10 +928,10 @@
         <v>33</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1064,21 +1102,21 @@
         <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2">
-        <v>45478</v>
+        <v>45538</v>
       </c>
       <c r="B7" s="3">
-        <v>45478</v>
+        <v>45540</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -1087,8 +1125,8 @@
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>55</v>
@@ -1102,91 +1140,93 @@
       <c r="J7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="2">
-        <v>45538</v>
+      <c r="A8" s="8">
+        <v>45554</v>
       </c>
       <c r="B8" s="3">
-        <v>45540</v>
+        <v>45554</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="19">
       <c r="A9" s="8">
-        <v>45554</v>
+        <v>45588</v>
       </c>
       <c r="B9" s="3">
-        <v>45554</v>
+        <v>45588</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="J9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1195,35 +1235,37 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="2">
-        <v>45573</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45573</v>
+      <c r="A10" s="8">
+        <v>45593</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45593</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1231,38 +1273,34 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="19">
+    <row r="11" spans="1:26">
       <c r="A11" s="8">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B11" s="3">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1270,180 +1308,237 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="8">
-        <v>45593</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45593</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+    <row r="12" spans="1:26" ht="19">
+      <c r="A12" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45617</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="8">
-        <v>45602</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45602</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="19">
+      <c r="A13" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45428</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
-        <v>45617</v>
+        <v>45314</v>
       </c>
       <c r="B14" s="1">
-        <v>45617</v>
+        <v>45314</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1">
-        <v>45428</v>
+        <v>45519</v>
       </c>
       <c r="B15" s="1">
-        <v>45428</v>
+        <v>45519</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1">
-        <v>45314</v>
+        <v>45441</v>
       </c>
       <c r="B16" s="1">
-        <v>45314</v>
+        <v>45441</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
         <v>97</v>
       </c>
-      <c r="I16" t="s">
-        <v>96</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45086</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z14" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z14">
-      <sortCondition ref="A1:A14"/>
+  <autoFilter ref="A1:Z12" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z12">
+      <sortCondition ref="A1:A12"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1458,16 +1553,14 @@
     <hyperlink ref="O6" r:id="rId9" xr:uid="{A02113C7-F245-FC49-84EE-4F8465C4EDBF}"/>
     <hyperlink ref="P6" r:id="rId10" xr:uid="{338D3833-2D34-E04B-B3C5-57D35A77F559}"/>
     <hyperlink ref="Q6" r:id="rId11" xr:uid="{4328586A-0EAB-CF47-81DA-4662727FA465}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{961193C9-44DE-FB4D-B07A-6250F3D4711D}"/>
-    <hyperlink ref="J8" r:id="rId13" xr:uid="{01788D43-EF40-FE4E-9667-965C988EE73A}"/>
-    <hyperlink ref="K8" r:id="rId14" xr:uid="{41F10527-4B25-1F46-BFEE-D0004B1D79C9}"/>
-    <hyperlink ref="L8" r:id="rId15" xr:uid="{0E2EB79C-9DB3-B143-BF5E-7C50521941C3}"/>
-    <hyperlink ref="M8" r:id="rId16" xr:uid="{D146AF80-56B1-3941-91A9-3603C7E1EABE}"/>
-    <hyperlink ref="N8" r:id="rId17" xr:uid="{47707D9E-90B6-2544-A8F6-1FA472267516}"/>
-    <hyperlink ref="O8" r:id="rId18" xr:uid="{ECB3AE8E-2D87-464D-A4E2-1718FA050DB9}"/>
-    <hyperlink ref="J10" r:id="rId19" xr:uid="{0EC2B6F9-B4F0-104D-80ED-D2199E3E1F7B}"/>
-    <hyperlink ref="J15" r:id="rId20" xr:uid="{71C591DB-2382-BF4E-83BE-2002F43C9BB0}"/>
-    <hyperlink ref="J2" r:id="rId21" xr:uid="{76A2B907-0244-4D47-B384-290823DAB126}"/>
+    <hyperlink ref="J7" r:id="rId12" xr:uid="{01788D43-EF40-FE4E-9667-965C988EE73A}"/>
+    <hyperlink ref="K7" r:id="rId13" xr:uid="{41F10527-4B25-1F46-BFEE-D0004B1D79C9}"/>
+    <hyperlink ref="L7" r:id="rId14" xr:uid="{0E2EB79C-9DB3-B143-BF5E-7C50521941C3}"/>
+    <hyperlink ref="M7" r:id="rId15" xr:uid="{D146AF80-56B1-3941-91A9-3603C7E1EABE}"/>
+    <hyperlink ref="N7" r:id="rId16" xr:uid="{47707D9E-90B6-2544-A8F6-1FA472267516}"/>
+    <hyperlink ref="O7" r:id="rId17" xr:uid="{ECB3AE8E-2D87-464D-A4E2-1718FA050DB9}"/>
+    <hyperlink ref="J13" r:id="rId18" xr:uid="{71C591DB-2382-BF4E-83BE-2002F43C9BB0}"/>
+    <hyperlink ref="J2" r:id="rId19" xr:uid="{76A2B907-0244-4D47-B384-290823DAB126}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
